--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IonutVarga\Documents\GitHub\API-Animal-Performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5277A0E-9BFC-4EC2-9ECE-A6C5BD28EF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01C687-D157-4620-958A-F1CEF4FBF8D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-14175" windowWidth="20220" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1545" yWindow="-13350" windowWidth="20220" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>Data\Input\</t>
+  </si>
+  <si>
+    <t>businessRuleException</t>
+  </si>
+  <si>
+    <t>No Mail</t>
+  </si>
+  <si>
+    <t>systemException</t>
+  </si>
+  <si>
+    <t>System Exception</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1926,8 +1938,22 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
